--- a/Caratere_arduino.xlsx
+++ b/Caratere_arduino.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cshawi-my.sharepoint.com/personal/nbourre_cshawi_ca/Documents/_cours/_contenus/_0SX - Développement de systèmes embarqués/0sx_notes_cours/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{03CC08C1-843E-46D4-8396-BC16CA13E6AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A7AA5DC-6E94-467A-83BF-220D90BD68CA}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="8_{03CC08C1-843E-46D4-8396-BC16CA13E6AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5343DFE0-444E-4C66-BF99-8556C15180A7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3AD8CD84-45A5-47DF-8A85-A23B55306132}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3AD8CD84-45A5-47DF-8A85-A23B55306132}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -131,14 +131,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -466,20 +459,20 @@
   <dimension ref="A2:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="6" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" customWidth="1"/>
-    <col min="11" max="11" width="74.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.44140625" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" customWidth="1"/>
+    <col min="11" max="11" width="74.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="J2" t="s">
         <v>15</v>
       </c>
@@ -487,7 +480,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -507,7 +500,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -515,27 +508,27 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="H4" t="str">
         <f>"B" &amp; _xlfn.TEXTJOIN("", TRUE, B4:F4) &amp; ","</f>
-        <v>B01010,</v>
+        <v>B00000,</v>
       </c>
       <c r="K4" t="str">
         <f>"byte " &amp;K2 &amp; "[8] = {" &amp; _xlfn.TEXTJOIN(" ", TRUE, H4:H11) &amp; "};"</f>
-        <v>byte heart[8] = {B01010, B01110, B11111, B11111, B01110, B01110, B00100, B00100};</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>byte heart[8] = {B00000, B01010, B00000, B00100, B10001, B01110, B00000, B00000};</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -546,7 +539,7 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -555,83 +548,83 @@
         <v>0</v>
       </c>
       <c r="H5" t="str">
-        <f t="shared" ref="H5:H11" si="0">"B" &amp; _xlfn.TEXTJOIN("", TRUE, B5:F5) &amp; ","</f>
-        <v>B01110,</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" ref="H5:H10" si="0">"B" &amp; _xlfn.TEXTJOIN("", TRUE, B5:F5) &amp; ","</f>
+        <v>B01010,</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
-        <v>B11111,</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>B00000,</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
-        <v>B11111,</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>B00100,</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
-        <v>B01110,</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>B10001,</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -655,7 +648,7 @@
         <v>B01110,</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -666,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -676,10 +669,10 @@
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
-        <v>B00100,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>B00000,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -690,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -700,7 +693,7 @@
       </c>
       <c r="H11" t="str">
         <f>"B" &amp; _xlfn.TEXTJOIN("", TRUE, B11:F11)</f>
-        <v>B00100</v>
+        <v>B00000</v>
       </c>
     </row>
   </sheetData>
